--- a/scrape_output2.xlsx
+++ b/scrape_output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,22 +503,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brian Pickard</t>
+          <t>Kyle Corcoran</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Director, Ecommerce Operations</t>
+          <t>VP Omnichannel &amp; Ecommerce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">A logical and analytical merchandising executive with extensive and diversified experience in retail acquired through interface with senior executives across multiple functions and divisions within leading retail organizations. Brings extensive project management experience and outstanding leadership qualities to drive complex strategic initiatives and organizational objectives.
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/brian-pickard-5b313323</t>
+          <t>https://www.linkedin.com/in/kyle-corcoran-1a094b4a</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -548,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lunenburg, Massachusetts, United States</t>
+          <t>Frisco, Texas, United States</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -558,34 +559,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1A Auto</t>
+          <t>BIOWORLD MERCHANDISING</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/57790</t>
+          <t>https://www.linkedin.com/sales/company/73125</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bailey Barben Temen</t>
+          <t>Salina Fotiathis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Director, Ecommerce</t>
+          <t>Vice President of Ecommerce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">With over six years of experience in the furniture industry, I am a passionate and driven leader in ecommerce, marketing, and advertising. I have a strong vision and mission to deliver exceptional customer experiences, innovative solutions, and profitable growth for Ashley Furniture, the largest furniture manufacturer and retailer in the world. I bring diverse perspectives and experiences to the team, as I speak multiple languages and have a deep understanding of different cultures and markets.
+As the Vice President of Ecommerce, I oversee the strategic direction and execution of all online channels, including the marketplace &amp; pureplay accounts. I manage a talented team of professionals who are responsible for merchandising, advertising, promotions, and product launches across all national accounts. I also work closely with the media agency to ensure alignment and optimization of search and display campaigns. I leverage my skills in digital marketing, advertising, and analytics to drive traffic, conversion, retention, and loyalty for Ashley Furniture.
+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/bailey-barben</t>
+          <t>https://www.linkedin.com/in/salinaabid</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -615,7 +618,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Tampa, Florida, United States</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -625,35 +628,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Bottega Veneta</t>
+          <t>Ashley Furniture Industries</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/24464</t>
+          <t>https://www.linkedin.com/sales/company/162547</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sheena McKay</t>
+          <t>Grant Morrow</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Senior Director of Ecommerce</t>
+          <t>Director Of Ecommerce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accomplished Global Sales Leader with extensive experience in leadership skills to coach, manage and motivate diverse professionals in challenging environments. Strong background in North America and European markets, strategic sales planning, eCommerce, digital marketing, category management and product innovation. Significant knowledge in general management, finance, supply chain and restructuring for change.
+          <t xml:space="preserve">I strive to develop solutions for business processes and problems through technology, while keeping an eye to market trends and major business goals and opportunities. My experience comes from a background of web development, project management, eCommerce, and video production. These skills have allowed me to gain a unique understanding of business, media and markets and those trends that influence what areas the most.
+Specialties: eCommerce deployment, Process reorientation, business systems redesign, business systems and eCommerce integration, logistics processes, project management, business process design
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/sheena-mckay</t>
+          <t>https://www.linkedin.com/in/grant-morrow-89ba6515</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,7 +687,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Naples, Florida, United States</t>
+          <t>Memphis Metropolitan Area</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -693,43 +697,34 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Newell Brands</t>
+          <t>Orgill</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/157237</t>
+          <t>https://www.linkedin.com/sales/company/105850</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lauren Pinto (Debrowski)</t>
+          <t>Bryan Stephan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Director of Ecommerce, North America</t>
+          <t>VP of Ecommerce</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have over 12 years of experience working with high-growth CPG brands, predominately in beauty and health &amp; wellness, driving online strategy and execution for success and profitability across DTC and Amazon channels. I’ve scaled brands from &lt;$10M to $100M+ while meeting and exceeding KPIs around ROI, LTV, CAC and more.
-Skills:
-- Digital growth marketing : paid social, email, SMS, SEM, CRO, affiliate/ambassador networks, influencer, media buying, SEO
-- Lifecycle marketing : email, SMS, loyalty, CRM, churn prevention
-- Offline marketing : Out of home, direct mail, radio / podcast
-- Strategic planning : marketing calendars, content testing, A/B testing, campaign go-to-market strategy, product launch go-to-marketing strategy
-- DTC ecommerce operations: inventory management, forecasting, merchandising, site management and development
-- Amazon Seller Central, FBA/FBM, strategy and advertising
-- Data analysis and strategic optimizations
-</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/laurendebrowski</t>
+          <t>https://www.linkedin.com/in/bstephan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -759,7 +754,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>New York City Metropolitan Area</t>
+          <t>Ventura, California, United States</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -769,34 +764,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BYREDO</t>
+          <t>Stance</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/10665641</t>
+          <t>https://www.linkedin.com/sales/company/2154624</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Stéphanie CHAUVIN</t>
+          <t>Ammar Zeno</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Directrice e-commerce Europe DIM, Playtex et Lovable</t>
+          <t>Head of Ecommerce</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E-commerce (définition stratégie, conception architecture, management P&amp;L, pi…Show more</t>
+          <t xml:space="preserve">With over a decade of experience in managing and executing digital projects and initiatives, I am a seasoned ecommerce leader who holds a bachelor's degree in Computer Information Systems. I have a strong background in customer relationship management, last mile delivery, and digital marketing, which enables me to create and implement effective ecommerce strategies that enhance online presence, performance, and profitability.
+As the Head of Ecommerce at Majid Al Futtaim, I am passionate about aligning the ecommerce vision and goals with the company's mission and values, and delivering positive EBITDA growth and NPS improvement. I have successfully moved the online business to a profitable state in 1.5 years and doubled the market share and company profitability. I have also launched and led innovative projects, such as free WIFI, queue busting, valet trolley, and web CSI, that increased sales by 5-10%. I am a collaborative and communicative leader who empowers and inspires my team to achieve excellence and customer satisfaction.
+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/stephaniechauvin</t>
+          <t>https://www.linkedin.com/in/ammar-zeno-b99a3b86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -826,7 +823,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Greater Paris Metropolitan Region</t>
+          <t>Kuwait City, Al Asimah, Kuwait</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -836,19 +833,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DIM</t>
+          <t>Trolley</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/25682</t>
+          <t>https://www.linkedin.com/sales/company/25167661</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jill Safinski Ginsberg</t>
+          <t>Uğur Akbıyık</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -858,12 +855,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>As an experienced e-commerce, digital, and marketing executive, I bring creativ…Show more</t>
+          <t xml:space="preserve">I am a highly qualified, results-oriented E-Commerce Executive, well-versed in creating and implementing intelligent policies to address e-commerce challenges (e.g. which infrastructure, which marketplace) and applying 'in-depth' knowledge of the plans and priorities required to deliver outstanding conversion results.
+Combining over 15 years of experience in E-commerce and E-Exports with a 'hands-on' leadership approach, I have a track record of breaking down barriers and achieving successful results. For example, as part of my E-export work, I have managed the sales/shipping of products on some of the world's most important marketplaces, including Asos in the UK, Afound in Sweden, Zalando in Germany, and then used my initiative to take smart measures to ensure the success of the program and maintain the good reputation of the brand. In addition, I have been involved in one of the leading players in the region to develop my hardcore logistics experience.
+My specialty is to analyze problems and come up with smart and robust solutions. I have shared this skill with people as a speaker at conferences organized in many cities in Türkiye.
+Besides the technical aspects of program management delivery, my strong leadership and effective communication skills instill confidence in C-Level, stakeholders and colleagues to ensure transparency, create synergy and build an environment of trust, respect and collaboration.
+Areas of Expertise:
+E-Commerce / E-Export / E-Commerce Logistics / Digital Marketing / Marketplaces / Government Incentives / Effective Management / Team Leadership /
+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jsafinski</t>
+          <t>https://www.linkedin.com/in/ugurakbiyik</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -878,7 +881,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve"> https://ugurakbiyik.blogspot.com/;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -893,7 +896,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>New York City Metropolitan Area</t>
+          <t>Istanbul, Türkiye</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -903,35 +906,35 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>The Laundress, LLC</t>
+          <t>Armine</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/1528514</t>
+          <t>https://www.linkedin.com/sales/company/4832077</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kendra E.</t>
+          <t>Jocelyn Nagy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Member Board of Directors</t>
+          <t>Director Of Ecommerce</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am a seasoned industry executive, who has dedicated decades of expertise to the growth and success of brands. With a passion for branding and marketing, I have played a pivotal role in elevating various companies through innovative digital strategies. Through years of hard work and dedication, I have honed my skills in marketing and branding, becoming a trusted figure in the industry. Leveraging my creativity and strategic mindset, I have implemented cutting-edge digital strategies that have propelled brands to new heights in the competitive digital landscape.
+          <t xml:space="preserve">Experienced cross-functional, eCommerce project leader with a passion for global strategy, innovation and implementing change. Highly collaborative manager responsible for delivering a customer-centric eCommerce experience to drive growth and engagement. Excellent team player and communicator with a demonstrated ability to manage across levels and departments.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/kendra-e-38a01749</t>
+          <t>https://www.linkedin.com/in/jocelyn-nagy-7772a71b</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -961,7 +964,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>New York, New York, United States</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -971,34 +974,41 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Fashion Group International, Inc.</t>
+          <t>Tommy Hilfiger</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/222006</t>
+          <t>https://www.linkedin.com/sales/company/5826</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Laila K.</t>
+          <t>Rasmus Thau Høgsted-Riddersholm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Director, eCommerce at InvictaStores.com</t>
+          <t>Ecommerce Director</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Experienced Ecommerce Manager with a demonstrated history working in various industries. Skilled in SEO and SEM Strategy, Content and Email Marketing, and lead generation, I help companies build their brand and drive quality traffic to their websites.</t>
+          <t xml:space="preserve">I'm strategic and commercial thinking, with a strong drive to create results and customer satisfaction.
+With extensive experience from both client and agency side, I can document strong understanding towards solving complex business challenges across platforms, markets and segments.
+Specialties:
+- Online sales / digital commerce, Omnichannel strategy, business development, user experience, and data-driven marketing disciplines
+- Growth Mindset and Design Thinking
+- Team management, development and everyday joy
+- Speaker on both danish and foreign conferences presenting Omnichannel cases. Giving Lectures at University
+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/laila-kabani-is-awesome</t>
+          <t>https://www.linkedin.com/in/rasmusriddersholm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1028,7 +1038,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hollywood, Florida, United States</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1038,34 +1048,37 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Invicta Stores</t>
+          <t>YouSee</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/4826909</t>
+          <t>https://www.linkedin.com/sales/company/1994</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>danielle muir</t>
+          <t>Catherine Harpe Neal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Director of Ecommerce Operations</t>
+          <t>Director, eCommerce &amp; Customer Operations</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t xml:space="preserve">Strong operations professional, with a proven track record in fulfillment and warehousing, eCommerce operations, supply chain logistics, and client success/advocacy. Catherine possesses a high-energy, hands-on management style, and uses it to provide clients with the high quality outcomes necessary for success in the fast-paced world of eCommerce. She has a passion for problem solving and process building, especially within complex and high-growth environments. She also excels in areas pertaining to organizational culture, and holds a firm belief that a successful organization must always maintain a willingness to invest in &amp; uplift their employees.
+Relational business is always preferential to transactional business.
+In her spare time, Catherine can be found walking her dogs on the beach, writing articles for local 'zines, and attempting to master the art of the perfect pour over.
+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/muirdanielle</t>
+          <t>https://www.linkedin.com/in/catherine-harpe-neal-284971203</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1095,7 +1108,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Los Angeles Metropolitan Area</t>
+          <t>North Charleston, South Carolina, United States</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1105,12 +1118,1130 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>RE/DONE</t>
+          <t>Parch Spirits Co</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/5273808</t>
+          <t>https://www.linkedin.com/sales/company/78328684</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Paul Kennedy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VP, Ecommerce</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/prkennedy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.applovin.com/;</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>San Francisco Bay Area</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>AppLovin</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/3076102</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vicente Sebastian Del Valle Papić</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>America Ecommerce, Senior Expert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professional with a diverse background spanning various industries—including sports, sporting goods, culture, consumer goods, energy drinks, skincare, beauty, clothing, and outdoor— I'm driven by my passion for implementing innovative, data-driven strategies. Over the years, I've achieved notable milestones, from successfully launching and managing e-commerces, performance marketing strategies, CRM set up and spearheading the highly successful PUMA APP and led the creation and develop of the PUMA mobile engagement strategy for SMS/MMS.
+It's all about data.
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vicentedelvalle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Miami, Florida, United States</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>MANGO</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/164834</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Anthony S.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vice President of DTC eCommerce</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omni-Channel retail VP and Department lead.
+Head of DTC &amp; Vice President of eCommerce:
+Seasoned retail and wholesale professional with over 20 years of experience in the industry.
+-Branded and private label expertise. Market and trend analysis for all levels of sales distribution: discount, mid-tier, department stores, sporting goods, big box, athletic specialty, vertical DTC and eCommerce.
+-Omni-channel sales, marketing, operations, data analytics and order fulfillment. Creative self-starter with a strong desire to drive top line sales and profitability. Focus on strategic market share growth and brand building.
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/anthony-s-24978912</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.helenoftroy.com/;</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Helen of Troy</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/24422</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Caleb Smith</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Director of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E-Commerce leader with over 20+ years of Fortune 500 experience, focused on the growth of people, technology, and the customer experience.
+Currently, I am the Director of eCommerce at City Furniture, South’s Florida’s number one furniture and mattress retailer, recognized in 2022 by Linkedin as the Number 9 company in retail to grow your career.
+Prior to that I spent over 20 years at Office Depot Corporation leading teams across several areas of both the B2C and B2B segments including creative technology, creative operations, private brand, in-store experience and ultimately eCommerce where I led the digital experience teams for our B2B and B2C web sites.
+From 2020-2021, I led technology experience optimizations for our consumer web site that resulted in us being recognized as Newsweek's Number 3 Consumer Technology Site for 2021.
+Featured speaker:
+DALIM DUO - North America
+"Making Money &amp; New Business
+DALIM DUO - NORTH AMERICA 
+"Project Challenges, 
+Future Shock &amp; Human Factors”
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/calebsmithdigital</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Lake Worth, Florida, United States</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CITY Furniture</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/163068</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Alexandre Felice</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Head of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Profissional de Marketing e Vendas com experiência em projetos direcionados a desenvolvimento do varejo, sobretudo em canais digitais e omnichannel, que ajudem a potencializar o negócio e propor soluções de percepção de imagem, melhorando o posicionamento das empresas junto ao seu público-alvo e stakeholders, conforme os objetivos e otimização de resultados.
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexandre-felice-8879b026</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>São Paulo, São Paulo, Brazil</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Integralmédica Suplementos Nutricionais</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/2653986</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Elizabeth Heineman</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">With over 15 years of experience in the direct-to-consumer fashion and accessories sector, I have honed my expertise in driving substantial growth, revenue, and customer loyalty through innovative, data-driven, and omni-channel marketing strategies. My leadership spans across roles where I've managed cross-functional teams and significant budgets, demonstrating proficiency in executing comprehensive marketing strategies that enhance efficiency and ROI. I have a track record of success in restructuring performance marketing, launching and scaling affiliate programs, advancing SEO initiatives, and spearheading retention marketing efforts that significantly boost traffic, conversions, and customer lifetime value.
+My strategic approach consistently optimizes the media mix to ensure financial efficiency and robust profit and loss (P&amp;L) management. Beyond tactical executions, my work involves guiding brand positioning across various channels and managing pivotal vendor relationships. My passion for growth and innovation, coupled with a keen insight into consumer trends, empowers me to deliver creative and visionary marketing solutions. I'm committed to fostering a culture of collaboration, nurturing talent within my teams, and continuously pursuing opportunities for learning and improvement in the ever-evolving landscape of fashion retail.
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/elizabeth-heineman-7670642</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.verabradley.com/;</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Churubusco, Indiana, United States</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Women in Retail Leadership Circle</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/18909162</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bernard Schmidt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sr. Director of eCommerce</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Drives strategic vision and guides Fortune 500 companies toward success as a seasoned leader in digital transformation. Pioneers products from startup inception to full-scale impact, consistently achieving profitable growth and results. This includes creati…Show more</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bernardschmidt</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bj.schmidt@gmail.com;</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Cincinnati, Ohio, United States</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>National Vision Inc.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/40840</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jaime Espinoza</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Head of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commercial Engineer and Executive MBA candidate in IE Business School with a solid 15-year experience in internationally renowned companies like Unilever and Softys (CMPC), specializing in marketing, trade marketing, sales, and e-commerce leadership. My career includes implementing commercial strategies and founding e-commerce initiatives in Latin America, with a significant commitment to the circular economy and sustainability. Known for driving digital transformation and growth in omnichannel platforms, I have a proven track record in leading multifunctional teams to success in highly competitive and changing markets.
+KEY SKILLS
+E-commerce &amp; Digital Transformation Strategy: Led the creation and strategy of the e-commerce area at Softys, implementing disruptive solutions like "Softys Prime" and enhancing the development of marketplaces that exceeded sales expectations.
+International Business Management &amp; Start-Up Leadership: Responsible for the expansion and management of start-ups in Ecuador, promoting strategic alliances and leading new market ventures with accelerated growth and recognitions in innovation and sustainability.
+Leadership &amp; Team Development: Lead high-performance teams in multicultural environments, achieving market leadership positions in CPGs and an increase in EBITDA.
+Data-Driven Mindset &amp; Technological Fluency: Continuously trained in Data Science and Big Data by MIT, I apply a data-driven approach to optimize decision-making and improve e-commerce operations.
+Customer Experience Innovation: Enhanced customer experience by implementing technologies like SAP Hybris, Vtex, and SEO optimization techniques, resulting in a 300% increase in organic traffic.
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jaimespinoza</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Santiago, Santiago Metropolitan Region, Chile</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Softys</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/35427803</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Veronika Nikolaeva</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Director of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/veronikanikolaeva</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://twitter.com/v_nikolaeva;</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Greater Madrid Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Auchan Retail</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/6533</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marilee Clark</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Director of Ecommerce &amp; Digital Marketing</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champion of digital marketing tools and technologies, with a track record of creating and implementing award-winning social media, web and email marketing campaigns. Works closely with C-level executives, product and marketing teams to develop and execute a proactive, marketing and editorial content calendar, managing all phases digital marketing initiatives from concept through delivery and optimization.
+Skills &amp; Specialties: Microsoft Office, Google Analytics, Web administration, Social Media Management, Staff Management, Photoshoot and video creative direction, E-commerce Management, Email Marketing, Digital Strategy, Event planning, Influencer Marketing, Budgeting &amp; Forecasting, Public Relations, Copywriting, Product Development, Product Marketing, SMS Marketing, Affiliate Marketing, Revenue
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marileecclark</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> marileecclark@gmail.com;</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>New York, New York, United States</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>RéVive Skincare</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/340162</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Steve Chaffin</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vice President, Ecommerce Partnerships</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 years experience building and managing Strategic Partnerships and Business Development across a variety of industries including: Saas SMB E-Commerce, Payments, Digital Media, Ad Platforms, Developers, OEMs, Carriers, Omnichannel Retail as well as App Stores globally. Deep expertise working with leading Eco-System Platform Players (Apple, Amazon, Google, Meta).
+Specialties: Strategic Partnerships &amp; Business Development; Mobile Marketing, Distribution &amp; Advertising; Brand Marketing &amp; Strategy; User Acquisition; CRM; Multi-Channel Marketing; Developer Relations; Search; Social; Managing Global Teams.
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/stevechaffin</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>San Francisco, California, United States</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Pratt Industries</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/25041</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Taylor Toussaint</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Director Of Ecommerce - North America</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Hey there, I'm Taylor!
+I am passionate about D2C (eCommerce, Amazon, etc.), marketing, developing …Show more</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/taylortoussaint</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.outdoortechnology.com/; https://twitter.com/taylortoussaint;</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Irvine, California, United States</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Bollé Brands</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/18861289</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ben Sharir</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Director, eCommerce</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">eCommerce enthusiast with +19 years of industry experience in various roles including Solution Architect, ChannelAdvisor consultant, Project Manager, Amazon and multi-channel marketplace seller, Scrum Master, Product Owner, Agile Coach, VP of eCommerce, Board of Directors member, Director, PMO, Co-Founder, and more…
+First US based eCommerce professional (since 2006) to monetize on the international marketplaces opportunity and generate millions in profit through corss-broder E-Commerce. Former CEO of one of the fastest growing eCommerce companies in annual revenue YoY. Started a company that is today a top-100 Amazon seller (and other marketplaces).
+Expert in E-Commerce platforms including ChannelAdvisor (Rithum), Salesforce (Commerce Cloud / SFCC, Marketing Cloud, B2B Commerce, and more…), SAP Commerce Cloud (Hybris), Adobe Commerce Cloud (Magento), Oracle Commerce Cloud (ATG), Shopify Enterprise, and more.
+I shine in the area of PIM (Product Information Management) with many years of experience using Salsify, Syndigo, STIBO, Informatica, and other PIMs / PXMs ... I'm considered to be one of the top MDM &amp; DAM experts in the industry, an expert in automating multi-channel bulk product listings, and listed millions of products on Amazon.com , Walmart.com , eBay.com , and +100 other online retail channels.
+Because of my passion for MDM (Master Data Management) I'm also an innovator &amp; investor of first of its kind systems for PIM/MDM platform. I also invented a pick &amp; pack, product imaging, mail presorting, digital merchandising, and few more apps that are used daily across the industry.
+In my personal life I'm also passionate about Monero and other privacy cryptocurrencies.
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bensharir</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://stores.ebay.com/classycosmetix; http://www.amazon.com/gp/browse.html?ie=UTF8&amp;marketplaceID=ATVPDKIKX0DER&amp;me=A30QID49CEIM2J; http://stores.ebay.co.uk/makeupboutiqueuk;</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> weixin://dl/chat?Ben%20Sharir; https://twitter.com/eldarsharir;</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>New York, New York, United States</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/33246798</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bikash Pathak</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VP of Digital &amp; Ecommerce- Southeast Asia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A passionate digital native, who has spent the last decade launching and scaling ecommerce &amp; omnichannel businesses across India, Middle East and Southeast Asia.
+In this journey, I have been fortunate to drive digital transformation for multi-billion dollar conglomerates in the Middle East (Al Tayer Group, Al Futtaim Group, Landmark Group, Jashanmal Group, Chalhoub Group) and Matahari Dept Store in Indonesia, growing ecommerce from 0 to 1 and managing P&amp;Ls towards profitability.
+Currently I am heading digital for MAP Active, the biggest Sports &amp; Lifestyle retailer in Southeast Asia across Indonesia, Philippines, Singapore, Malaysia, Thailand and Vietnam for some of the most iconic brands in the world like Footlocker, New Balance, Converse, Skechers, Hoka, Crocs, Aldo, Birkenstock, Steve Madden, Lego and many more.
+PROFESSIONAL EXPERTISE INCLUDE:
+P&amp;L management, Digital transformation, Trading &amp; Merchandising, CX, CRO, Digital Marketing, Tech &amp; Product Strategy, Growth, Project Management, Business Analytics, Ecommerce Platforms &amp; Tools, Team Management.
+Personally, I am a “technology as enabler” evangelist, avid reader and a hiking nerd who is always available for causes around children welfare, sustainability and environmental conservation.
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bikashpathak</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bikash.pathak1989@gmail.com;</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Jakarta Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>PT MAP Aktif Adiperkasa, Indonesia</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/30188938</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Diego Fria</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>eCommerce Director</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">eCommerce Director and Product specialist currently working at Stüssy inc.
+I have given lectures and talks at Hyper Island and at Industry conferences and events like LEAP in Riyadh, D Congress in Gothenburg, RTS London, Savant eCommerce and Copenhagen Fashion Week as well as participating at Klarna and Shopify events among many others discussing tech, eCommerce and growth strategies.
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/diegoveggie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Stussy, Inc.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/1436502</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jonathan Yardley</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Head of ECommerce</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Award winning ECommerce leader and specialist in 'Direct to Customer' (D2C/DTC) digital platforms, with over fifteen years experience of building, scaling and trading D2C, multichannel websites. Digital leadership roles held at major bluechip brands su…Show more</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jonathan-yardley-1a50326</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://arsenaldirect.arsenal.com/;</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Arsenal F.C</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/1967036</t>
         </is>
       </c>
     </row>
